--- a/data/landings/cdfw/public/fish_bulletins/raw/fb168/raw/Table5.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb168/raw/Table5.xlsx
@@ -1,24 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/fb168/raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/camilavargaspoulsen/github/wc_climate_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb168/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CBC124B-2D8B-3F4C-8B0C-84DF325864EB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8ADC04-6554-6848-B0E0-BCB70A14270F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20680" yWindow="1640" windowWidth="27640" windowHeight="16940" xr2:uid="{54CEFF2D-1A62-0E40-82DE-4ED4DB15B4E1}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{54CEFF2D-1A62-0E40-82DE-4ED4DB15B4E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -30,105 +38,18 @@
     <t>96-100</t>
   </si>
   <si>
-    <t>91- 95 ..................................</t>
-  </si>
-  <si>
     <t>86-90</t>
   </si>
   <si>
     <t>81- 85</t>
   </si>
   <si>
-    <t>171-175................................</t>
-  </si>
-  <si>
-    <t>76- 80 .....................</t>
-  </si>
-  <si>
-    <t>166-170 ...........................</t>
-  </si>
-  <si>
-    <t>71- 75 ................................</t>
-  </si>
-  <si>
-    <t>161-165 ............................</t>
-  </si>
-  <si>
-    <t>66- 70..................................</t>
-  </si>
-  <si>
-    <t>156-160............................</t>
-  </si>
-  <si>
-    <t>61- 65 ..................................</t>
-  </si>
-  <si>
-    <t>151-155............................</t>
-  </si>
-  <si>
-    <t>56- 60 ............................</t>
-  </si>
-  <si>
-    <t>146-150 ............................</t>
-  </si>
-  <si>
-    <t>51- 55 ..................................</t>
-  </si>
-  <si>
-    <t>141-145 ............................</t>
-  </si>
-  <si>
-    <t>46- 50 .................................</t>
-  </si>
-  <si>
-    <t>136-140 ............................</t>
-  </si>
-  <si>
-    <t>41- 45 ..................................</t>
-  </si>
-  <si>
-    <t>131-135................................</t>
-  </si>
-  <si>
-    <t>36- 40 ..................................</t>
-  </si>
-  <si>
-    <t>126-130 ............................</t>
-  </si>
-  <si>
-    <t>31- 35 ...............................</t>
-  </si>
-  <si>
-    <t>121-125........................</t>
-  </si>
-  <si>
-    <t>26- 30..................................</t>
-  </si>
-  <si>
     <t>116-120</t>
   </si>
   <si>
     <t>21-25</t>
   </si>
   <si>
-    <t>111-115................................</t>
-  </si>
-  <si>
-    <t>16- 20 ..................................</t>
-  </si>
-  <si>
-    <t>106-110................................</t>
-  </si>
-  <si>
-    <t>11- 15 ..................................</t>
-  </si>
-  <si>
-    <t>101-105................................</t>
-  </si>
-  <si>
-    <t>0- 10..................................</t>
-  </si>
-  <si>
     <t>1975-76</t>
   </si>
   <si>
@@ -148,6 +69,93 @@
   </si>
   <si>
     <t>Total check</t>
+  </si>
+  <si>
+    <t>0- 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16- 20 </t>
+  </si>
+  <si>
+    <t>26- 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31- 35 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">36- 40 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">41- 45 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">46- 50 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">51- 55 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">56- 60 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">61- 65 </t>
+  </si>
+  <si>
+    <t>66- 70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71- 75 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">76- 80 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">91- 95 </t>
+  </si>
+  <si>
+    <t>101-105</t>
+  </si>
+  <si>
+    <t>106-110</t>
+  </si>
+  <si>
+    <t>111-115</t>
+  </si>
+  <si>
+    <t>121-125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126-130 </t>
+  </si>
+  <si>
+    <t>131-135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">136-140 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">141-145 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">146-150 </t>
+  </si>
+  <si>
+    <t>151-155</t>
+  </si>
+  <si>
+    <t>156-160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">161-165 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">166-170 </t>
+  </si>
+  <si>
+    <t>171-175</t>
+  </si>
+  <si>
+    <t>11-15</t>
   </si>
 </sst>
 </file>
@@ -190,9 +198,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -509,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9760DE4-38A1-DD4B-ACEA-1A06387D7DC9}">
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -521,18 +530,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -542,8 +551,8 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>31</v>
+      <c r="A3" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="B3">
         <v>186</v>
@@ -554,7 +563,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>1383</v>
@@ -565,7 +574,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>1240</v>
@@ -576,7 +585,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>955</v>
@@ -587,7 +596,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>752</v>
@@ -598,7 +607,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B8">
         <v>936</v>
@@ -609,7 +618,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9">
         <v>450</v>
@@ -620,7 +629,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10">
         <v>320</v>
@@ -631,7 +640,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11">
         <v>151</v>
@@ -642,7 +651,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B12">
         <v>165</v>
@@ -653,7 +662,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B13">
         <v>116</v>
@@ -664,7 +673,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B14">
         <v>40</v>
@@ -675,7 +684,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B15">
         <v>43</v>
@@ -686,7 +695,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B16">
         <v>31</v>
@@ -697,7 +706,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B17">
         <v>23</v>
@@ -708,7 +717,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18">
         <v>11</v>
@@ -719,7 +728,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B19">
         <v>9</v>
@@ -741,7 +750,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B21">
         <v>5</v>
@@ -752,7 +761,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>5</v>
@@ -774,7 +783,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="B24">
         <v>9</v>
@@ -785,7 +794,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -796,7 +805,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -807,7 +816,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>6</v>
@@ -818,7 +827,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B28">
         <v>10</v>
@@ -829,7 +838,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -840,7 +849,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -851,7 +860,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B31">
         <v>16</v>
@@ -862,7 +871,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="B32">
         <v>5</v>
@@ -873,7 +882,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="B33">
         <v>3</v>
@@ -884,7 +893,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -895,7 +904,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>5</v>
@@ -906,7 +915,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -917,7 +926,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="B37">
         <v>34</v>
@@ -928,7 +937,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="B38">
         <v>6932</v>
@@ -939,7 +948,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="B39" s="1">
         <f>SUM(B2:B37)-B38</f>
